--- a/pictures_news/globaltimes.xlsx
+++ b/pictures_news/globaltimes.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD19434-C2D1-4130-ADAA-CED6AD8D9F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -15,84 +14,934 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="301">
   <si>
     <t>标题</t>
   </si>
   <si>
+    <t>跳出权力转移误区看中美关系</t>
+  </si>
+  <si>
+    <t>2019-12-24</t>
+  </si>
+  <si>
+    <t>让“新冷战”落空，中国就将笑到最后</t>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+  </si>
+  <si>
+    <t>美国知名学者、 哈佛大学教授约瑟夫 ·奈接受《环球时报》 专访“美中必有一战 ” 非美国主流看法</t>
+  </si>
+  <si>
+    <t>2019-11-05</t>
+  </si>
+  <si>
+    <t>中尼 “世代友好” 跨越珠峰 中印 “龙象共舞” 维护和平习近平访南亚成果受瞩目</t>
+  </si>
+  <si>
+    <t>2019-10-14</t>
+  </si>
+  <si>
+    <t>欧洲没有选择与美国站在一起</t>
+  </si>
+  <si>
+    <t>2019-08-30</t>
+  </si>
+  <si>
+    <t>中国特色社会主义为什么 “行”</t>
+  </si>
+  <si>
+    <t>2019-08-27</t>
+  </si>
+  <si>
+    <t>美国老布什美中关系基金会总裁方大为接受 《 环球时报》专访 “贸易战明年结束， 不管谁当总统</t>
+  </si>
+  <si>
+    <t>2019-08-15</t>
+  </si>
+  <si>
+    <t>中美关系正能量真的变少了吗</t>
+  </si>
+  <si>
+    <t>2019-07-17</t>
+  </si>
+  <si>
+    <t>“崛起的中国惠及我们所有人”</t>
+  </si>
+  <si>
+    <t>中国实践大步向前，中国理论得跟上</t>
+  </si>
+  <si>
+    <t>2019-07-02</t>
+  </si>
+  <si>
+    <t>战略稳定框架让中美都受益</t>
+  </si>
+  <si>
+    <t>2019-06-21</t>
+  </si>
+  <si>
+    <t>中美的未来难从历史中找到答案</t>
+  </si>
+  <si>
+    <t>2019-06-14</t>
+  </si>
+  <si>
+    <t>如何判断美国对华政策的转变</t>
+  </si>
+  <si>
+    <t>2019-06-13</t>
+  </si>
+  <si>
+    <t>爱尔兰媒体转载美国知名国际问题学者裴敏欣的文章 将对华竞争视为文明冲突，愚蠢！</t>
+  </si>
+  <si>
+    <t>2019-05-16</t>
+  </si>
+  <si>
+    <t>应对共同挑战，中美该存异求同 《环球时报》记者：在美参加“全球创业峰会”，我仿佛身处中国某内地省份</t>
+  </si>
+  <si>
+    <t>2019-04-16</t>
+  </si>
+  <si>
+    <t>什么才是今天最大的“全球性问题”</t>
+  </si>
+  <si>
+    <t>2019-04-10</t>
+  </si>
+  <si>
+    <t>冷战史权威专家、哈佛大学学者文安立接受本报专访 中美“冷战2.0”是无稽之谈</t>
+  </si>
+  <si>
+    <t>2019-04-09</t>
+  </si>
+  <si>
+    <t>大国国民心态的修炼过程无法省略</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>“修昔底德陷阱”当然是可避免的</t>
+  </si>
+  <si>
+    <t>2019-03-28</t>
+  </si>
+  <si>
+    <t>西方人对中国认知变化的根源</t>
+  </si>
+  <si>
+    <t>2019-02-26</t>
+  </si>
+  <si>
+    <t>中国如何跨越“第二经济大国陷阱”</t>
+  </si>
+  <si>
+    <t>2019-01-26</t>
+  </si>
+  <si>
+    <t>在国际舆论场上保持定力和微笑</t>
+  </si>
+  <si>
+    <t>2019-01-24</t>
+  </si>
+  <si>
+    <t>倪  峰</t>
+  </si>
+  <si>
+    <t>2019-01-21</t>
+  </si>
+  <si>
+    <t>中美应当寻找真正的共同敌人</t>
+  </si>
+  <si>
+    <t>2019-01-16</t>
+  </si>
+  <si>
+    <t>中美当然可以走出“历史窠臼”</t>
+  </si>
+  <si>
+    <t>2019-01-02</t>
+  </si>
+  <si>
+    <t>“修昔底德陷阱”提出者艾利森接受《环球时报》记者专访：让美国接受中国崛起，过程会很长</t>
+  </si>
+  <si>
+    <t>2018-12-19</t>
+  </si>
+  <si>
+    <t>2019，中美关系向何处去——环球时报年会第一议题嘉宾讨论精彩内容摘编</t>
+  </si>
+  <si>
+    <t>2018-12-13</t>
+  </si>
+  <si>
+    <t>世界结构性矛盾正愈益显现</t>
+  </si>
+  <si>
+    <t>2018-12-11</t>
+  </si>
+  <si>
+    <t>绕过四大陷阱，中国使出四招</t>
+  </si>
+  <si>
+    <t>2018-11-28</t>
+  </si>
+  <si>
+    <t>非洲应向世界讲述与中国的故事</t>
+  </si>
+  <si>
+    <t>2018-11-20</t>
+  </si>
+  <si>
+    <t>美国社会纠偏机制仍在起作用</t>
+  </si>
+  <si>
+    <t>2018-11-19</t>
+  </si>
+  <si>
+    <t>反思“一战”须跳出西方逻辑陷阱</t>
+  </si>
+  <si>
+    <t>2018-11-09</t>
+  </si>
+  <si>
+    <t>约瑟夫·奈：中美进入“合作竞争”阶段</t>
+  </si>
+  <si>
+    <t>2018-11-08</t>
+  </si>
+  <si>
+    <t>中美之间，“战争”可以避免——华盛顿需掂量十个重大问题</t>
+  </si>
+  <si>
+    <t>2018-10-12</t>
+  </si>
+  <si>
+    <t>造谣中国干涉被批粗鲁  借口“大国竞赛”转移焦点 彭斯演讲，美国要走“新冷战”之路？</t>
+  </si>
+  <si>
+    <t>2018-10-09</t>
+  </si>
+  <si>
+    <t>为特朗普的无端指责造势，无凭无据无人信 美公司诬中国钓鱼邮件干涉选举</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>跳出经验主义牢笼看问题</t>
+  </si>
+  <si>
+    <t>2018-09-26</t>
+  </si>
+  <si>
+    <t>牛津大学中国研究中心主任拉纳?米特接受《环球时报》专访 中美关系不会掉进“修昔底德陷阱”</t>
+  </si>
+  <si>
+    <t>2018-09-03</t>
+  </si>
+  <si>
+    <t>中国今年最大主场外交     中非关系新的历史时刻  中非合作论坛今天开峰会</t>
+  </si>
+  <si>
+    <t>事关世界秩序大棋局的中美关系</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>中国改革开放40年释放的信息</t>
+  </si>
+  <si>
+    <t>2018-08-10</t>
+  </si>
+  <si>
+    <t>改革开放40年，成功秘诀何在</t>
+  </si>
+  <si>
+    <t>2018-08-02</t>
+  </si>
+  <si>
+    <t>印媒：中美终将达成平衡贸易关系</t>
+  </si>
+  <si>
+    <t>2018-07-31</t>
+  </si>
+  <si>
+    <t>世界和平论坛秘书长、清华大学国际关系研究院院长阎学通接受本报专访 中美有机会避免“模式之争”</t>
+  </si>
+  <si>
+    <t>2018-07-06</t>
+  </si>
+  <si>
+    <t>美对华冷战判断是完全错误的</t>
+  </si>
+  <si>
+    <t>2018-06-27</t>
+  </si>
+  <si>
+    <t>抹黑中国贷款，美报告用心恶劣</t>
+  </si>
+  <si>
+    <t>2018-05-17</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>美国行事像外星人，自私且反历史</t>
+  </si>
+  <si>
+    <t>2018-03-28</t>
+  </si>
+  <si>
+    <t>跨越各色“陷阱”的陷阱</t>
+  </si>
+  <si>
+    <t>2018-03-23</t>
+  </si>
+  <si>
+    <t>世界多极化呼唤全球合作新框架</t>
+  </si>
+  <si>
+    <t>2018-03-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国崛起超越大国对抗逻辑  </t>
+  </si>
+  <si>
+    <t>2018-03-12</t>
+  </si>
+  <si>
+    <t>从资本三百年看全球治理的未来</t>
+  </si>
+  <si>
+    <t>2018-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“陷阱说”本身，可能就是个“陷阱” </t>
+  </si>
+  <si>
+    <t>2018-02-26</t>
+  </si>
+  <si>
+    <t>美智库臆想大国冲突“18种状况”</t>
+  </si>
+  <si>
+    <t>2018-02-23</t>
+  </si>
+  <si>
+    <t>伟大复兴不以赶超美国为目标</t>
+  </si>
+  <si>
+    <t>2018-01-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用智慧化解中美敏感问题的“对抗性” </t>
+  </si>
+  <si>
+    <t>2018-01-23</t>
+  </si>
+  <si>
+    <t>知识才是大国竞争制高点</t>
+  </si>
+  <si>
+    <t>2018-01-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中印接下来到底该如何相处 </t>
+  </si>
+  <si>
+    <t>“大国崛起必有一战”思维过时了</t>
+  </si>
+  <si>
+    <t>2018-01-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">专访美国著名国际关系理论学者、普林斯顿大学教授罗伯特·基欧汉 中国崛起势必带来冲突？错！ </t>
+  </si>
+  <si>
+    <t>2018-01-10</t>
+  </si>
+  <si>
+    <t>世界会走向混沌不清、方向迷离吗</t>
+  </si>
+  <si>
+    <t>2017-12-29</t>
+  </si>
+  <si>
+    <t>中美博弈是“变和”而非“零和”</t>
+  </si>
+  <si>
+    <t>2017-12-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修昔底德陷阱？不必担心！ </t>
+  </si>
+  <si>
+    <t>2017-12-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">感叹崛起势头强劲 认为内外挑战不少 外媒称中国是2017年赢家 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">提质增效稳中求进 防控风险重中之重 外媒聚焦中国进入“后GDP时代” </t>
+  </si>
+  <si>
+    <t>2017-12-22</t>
+  </si>
+  <si>
+    <t>英媒出歪招对付中国“锐实力”</t>
+  </si>
+  <si>
+    <t>2017-12-20</t>
+  </si>
+  <si>
+    <t>对“反恐大联盟”不可期望太高</t>
+  </si>
+  <si>
+    <t>2017-12-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">又到重塑国际权责平衡的时候了 </t>
+  </si>
+  <si>
+    <t>2017-11-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中美大战略在“互动式调整” </t>
+  </si>
+  <si>
+    <t>2017-11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中美走向更有韧性的战略稳定关系  </t>
+  </si>
+  <si>
+    <t>2017-11-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“修昔底德陷阱”已成伪命题 </t>
+  </si>
+  <si>
+    <t>2017-11-01</t>
+  </si>
+  <si>
+    <t>美智库：中国需跨越四个陷阱</t>
+  </si>
+  <si>
+    <t>中国建设现代化强国，外界无需担心</t>
+  </si>
+  <si>
+    <t>2017-10-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国的2050年目标不是我赢你输的 </t>
+  </si>
+  <si>
+    <t>2017-10-25</t>
+  </si>
+  <si>
+    <t>中美关系转型升级呈现出新特征</t>
+  </si>
+  <si>
+    <t>2017-10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新时代的中国将如何与世界对接  </t>
+  </si>
+  <si>
+    <t>2017-10-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">五年历史性变革后，新时代不会失约  </t>
+  </si>
+  <si>
+    <t>2017-10-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西方对中国从不屑到惊慌  </t>
+  </si>
+  <si>
+    <t>2017-09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中美之间的下一个文明冲突 </t>
+  </si>
+  <si>
+    <t>2017-08-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美俄互怼加剧下的中国战略运筹  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">是不是谁的经济军事实力最强，谁就是对国际社会的最大威胁？ 中方驳斥美“最大威胁”说 </t>
+  </si>
+  <si>
+    <t>2017-07-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美学者：美不会被盟友拖入对华战争 </t>
+  </si>
+  <si>
+    <t>2017-07-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美韩罕见公开实弹演练 平壤严厉警告“军事赌博”朝批美轰炸机在“火药库玩火” </t>
+  </si>
+  <si>
+    <t>2017-07-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中东版“修昔底德陷阱”难生热战 </t>
+  </si>
+  <si>
+    <t>2017-06-20</t>
+  </si>
+  <si>
+    <t>中国专家更懂特朗普外交？</t>
+  </si>
+  <si>
+    <t>2017-06-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中俄关系成功避开修昔底德陷阱 </t>
+  </si>
+  <si>
+    <t>2017-04-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">期待习特会为中美关系做战略定调  </t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球性知识短缺或导致严重后果 </t>
+  </si>
+  <si>
+    <t>2017-03-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚洲无需外部平衡器 </t>
+  </si>
+  <si>
+    <t>2017-03-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">东北亚秩序重置需新外交想象力 </t>
+  </si>
+  <si>
+    <t>2017-02-24</t>
+  </si>
+  <si>
+    <t>法媒：特朗普对华须避金德尔伯格难题</t>
+  </si>
+  <si>
+    <t>2017-01-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们没有误解新加坡 </t>
+  </si>
+  <si>
+    <t>2016-11-08</t>
+  </si>
+  <si>
+    <t>中美构筑桥梁需要新基辛格</t>
+  </si>
+  <si>
+    <t>2016-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大国需要培育信任 </t>
+  </si>
+  <si>
+    <t>2016-10-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国更有可能避免别人犯过的错误  </t>
+  </si>
+  <si>
+    <t>2016-10-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逾万民众夹道欢迎 多项协议昨天签署 柬埔寨欢呼习近平来访 </t>
+  </si>
+  <si>
+    <t>2016-10-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美国是一辆停不下来的“战车” </t>
+  </si>
+  <si>
+    <t>2016-07-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">突破东亚困局要靠非传统思路 </t>
+  </si>
+  <si>
+    <t>2016-07-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">决心避免战略误判 直面沟通棘手议题 中美对话寻求管控分歧  </t>
+  </si>
+  <si>
+    <t>2016-06-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">随时树敌，美国的战略“刚需” </t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开展大国外交正处在关键时刻 </t>
+  </si>
+  <si>
+    <t>2016-05-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中美“修昔底德陷阱”的另一面  </t>
+  </si>
+  <si>
+    <t>2016-04-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南海问题：沉住气、全面看、有信心 </t>
+  </si>
+  <si>
+    <t>2016-04-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中美只有“交心”才能避免战略误判 </t>
+  </si>
+  <si>
+    <t>2016-04-05</t>
+  </si>
+  <si>
+    <t>战略引导是习奥会的首要价值</t>
+  </si>
+  <si>
+    <t>2016-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西方能量正枯竭，希望在中国 </t>
+  </si>
+  <si>
+    <t>2016-03-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发现利益汇合点，中美合作可办大事 </t>
+  </si>
+  <si>
+    <t>2016-02-15</t>
+  </si>
+  <si>
+    <t>中美关系的悖论</t>
+  </si>
+  <si>
+    <t>2016-01-28</t>
+  </si>
+  <si>
+    <t>美媒：遏制中国只会付出代价</t>
+  </si>
+  <si>
+    <t>2015-12-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">听约瑟夫·奈纵论2015 </t>
+  </si>
+  <si>
+    <t>2015-12-28</t>
+  </si>
+  <si>
+    <t>中国为走出“发展的焦虑”探寻路径</t>
+  </si>
+  <si>
+    <t>2015-12-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2049年，中国会怎样 </t>
+  </si>
+  <si>
+    <t>2015-12-01</t>
+  </si>
+  <si>
+    <t>日媒：应庆幸现在的美中关系</t>
+  </si>
+  <si>
+    <t>2015-11-27</t>
+  </si>
+  <si>
+    <t>对华战略言行不一的美式纠结</t>
+  </si>
+  <si>
+    <t>2015-11-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中美关系已过临界点？ </t>
+  </si>
+  <si>
+    <t>2015-10-27</t>
+  </si>
+  <si>
+    <t>亚太安全取决于中美合作</t>
+  </si>
+  <si>
+    <t>2015-10-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45万亿，美中经济的差距 </t>
+  </si>
+  <si>
+    <t>2015-10-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炒作“修昔底德陷阱”是种学术讹诈 </t>
+  </si>
+  <si>
+    <t>2015-10-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联大演讲展现大国担当 白宫会晤“校正”中美关系 外媒盘点习近平美国行 </t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前美国安局局长、首任网络司令部司令接受《环球时报》专访 前“黑客沙皇”看好美中网络合作 </t>
+  </si>
+  <si>
+    <t>2015-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拒绝“修昔底德陷阱”，习奥共划底线  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“上访”般泡沫干扰不了习近平访美 </t>
+  </si>
+  <si>
+    <t>2015-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美国白宫宣布将设国宴 中国外长强调增信释疑 习近平主席下周访美国 </t>
+  </si>
+  <si>
+    <t>2015-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">智库与军方专家、议员、媒体正掀起前所未有的对华政策大辩论 听十名美国顶尖学者论中美 </t>
+  </si>
+  <si>
+    <t>2015-08-26</t>
+  </si>
+  <si>
+    <t>中美关系重心的历史性调整</t>
+  </si>
+  <si>
+    <t>2015-08-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美国“莽汉式博弈”才是真危险 </t>
+  </si>
+  <si>
+    <t>2015-07-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">莫用历史旧逻辑往中美身上套 </t>
+  </si>
+  <si>
+    <t>2015-07-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">索罗斯“世界大战论”逻辑荒诞 </t>
+  </si>
+  <si>
+    <t>2015-05-23</t>
+  </si>
+  <si>
+    <t>2015-05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日媒：“修昔底德陷阱”不适用于中美 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚投行改写国际体系变革方式 </t>
+  </si>
+  <si>
+    <t>2015-04-01</t>
+  </si>
+  <si>
     <t>美媒：须直面中国的四种挑战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-10-18</t>
   </si>
   <si>
     <t xml:space="preserve">美中滑向“战争不可避免论”? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-9-3</t>
   </si>
   <si>
     <t xml:space="preserve">中美掉入修昔底德陷阱了吗 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-7-11</t>
   </si>
   <si>
     <t xml:space="preserve">美智库：北京为何重欧轻美 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-4-16</t>
   </si>
   <si>
     <t>官方交流 “真诚而坦率” 媒体争论 “谁教训了谁” 美防长结束在华 “ 碰硬之旅”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-4-10</t>
   </si>
   <si>
     <t>日媒：中美陷入“囚徒困境”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-3-26</t>
   </si>
   <si>
     <t xml:space="preserve">探究中美关系冷暖 聚焦大国对俄态度 世界舆论反复琢磨“习奥会” </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-3-25</t>
   </si>
   <si>
     <t xml:space="preserve">欧盟该睁眼看世界了 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-3-21</t>
   </si>
   <si>
     <t>披露钓鱼岛应对方案 建议自卫队主动开火 日本预想迫降中国军机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-1-30</t>
   </si>
   <si>
     <t>猜忌主导下的中日关系很危险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-12-17</t>
   </si>
   <si>
     <t>安保条约或成美日互设的陷阱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-6-21</t>
   </si>
   <si>
     <t xml:space="preserve">新报：美应减轻北京的焦虑 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-1-15</t>
   </si>
   <si>
     <t xml:space="preserve">南海统一战线东盟不积极 重返亚太战略国内唱反调 希拉里亚洲行不会轻松 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-9-3</t>
+  </si>
+  <si>
+    <t>亚洲前政要另种视角看“一带一路”</t>
+  </si>
+  <si>
+    <t>2020-01-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国人为什么到非洲维和 </t>
+  </si>
+  <si>
+    <t>2020-01-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"修昔底德陷阱"提出者格雷厄姆?艾利森接受《环球时报》专访： 疫情应成为美中管控竞争的契机 </t>
+  </si>
+  <si>
+    <t>2020-04-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美国黑石集团董事长兼联合创始人苏世民接受本报专访 2021年，大部分国家经济将复苏 </t>
+  </si>
+  <si>
+    <t>2020-04-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">世界应给"问题解决者"中国更多信赖 </t>
+  </si>
+  <si>
+    <t>2020-04-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多位美国权威冷战问题专家接受《环球时报》采访 推崇"新冷战"将让美国更痛苦 </t>
+  </si>
+  <si>
+    <t>2020-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人大重阳问卷调查百名中国学者，九成受访者相信—— 中国能应对好美国"新冷战"攻势 </t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">扎牢南海和平稳定之锚 </t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华盛顿为"历史妄想症"找替罪羊 </t>
+  </si>
+  <si>
+    <t>2020-08-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年轻人热捧"入关学"的思考  </t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中美关系：到丢弃幻想的时候了? </t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -118,11 +967,11 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -405,133 +1254,1252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
-    <col min="2" max="2" width="14.9140625" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>41930</v>
+        <v>299</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>41885</v>
+        <v>297</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>41831</v>
+        <v>295</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>41745</v>
+        <v>293</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>41739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <v>41724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>41723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <v>41719</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
-        <v>41669</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <v>41625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
-        <v>41446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
-        <v>41289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
-        <v>41155</v>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>151</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>158</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>164</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>176</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>184</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>188</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>190</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>192</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>194</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>196</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>198</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>200</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>204</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>210</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>212</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>214</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>216</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>218</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>220</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>222</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>224</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>228</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>230</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>232</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>235</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>237</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>239</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>241</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>243</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>245</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>247</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>251</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>253</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>255</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>257</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>259</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>261</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
